--- a/slides/lecture05/your_own_npv.xlsx
+++ b/slides/lecture05/your_own_npv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ad83bda99cce0ca/Github/ELE-3915/slides/lecture05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8975" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121515B9-E4D6-46F1-87A6-D00E1CC9EBB7}"/>
+  <xr:revisionPtr revIDLastSave="8982" documentId="11_F25DC773A252ABDACC104863C91E5CB45BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E46785-5354-4906-9F7C-DAA859F247B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="951" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="951" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise ideas" sheetId="26" r:id="rId1"/>
@@ -223,7 +223,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;kr&quot;\ #,##0.00;[Red]\-&quot;kr&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;kr&quot;\ #,##0.00;[Red]\-&quot;kr&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -369,13 +369,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="5"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="5" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -1843,7 +1843,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="1084" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="927" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1966,25 +1966,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87274E8B-8A80-434E-BD23-0722AE1031FA}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2015,9 +2015,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="str">
+      <c r="A17" s="8" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A18)</f>
-        <v>=NPV(C13;A13:A15)</v>
+        <v>=NPV(C13,A13:A15)</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2074,9 +2074,9 @@
       <c r="J22" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="str">
+      <c r="A24" s="8" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A25)</f>
-        <v>=NPVNEW(C13;A13:A15)</v>
+        <v>=NPVNEW(C13,A13:A15)</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2117,9 +2117,9 @@
       <c r="J28" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="str">
+      <c r="A30" s="8" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A31)</f>
-        <v>=NPVALT(C13;A13:A15)</v>
+        <v>=NPVALT(C13,A13:A15)</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2179,7 +2179,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>DOLLAR(1,0)</f>
-        <v>kr 1</v>
+        <v>£1</v>
       </c>
       <c r="B3" t="str">
         <f>ADDRESS(1,1,2,0)</f>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="C3" t="str">
         <f>FIXED(1E+21, 0, FALSE)</f>
-        <v>1 000 000 000 000 000 000 000</v>
+        <v>1,000,000,000,000,000,000,000</v>
       </c>
     </row>
   </sheetData>
